--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004702</t>
-  </si>
-  <si>
-    <t>000326</t>
-  </si>
-  <si>
-    <t>000327</t>
-  </si>
-  <si>
-    <t>南方金融主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>南方中小盘成长股票</t>
-  </si>
-  <si>
-    <t>南方潜力新蓝筹混合</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>84.87</t>
-  </si>
-  <si>
-    <t>89.91</t>
-  </si>
-  <si>
-    <t>88.49</t>
-  </si>
-  <si>
-    <t>4.69</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>0.2626</t>
-  </si>
-  <si>
-    <t>0.0466</t>
-  </si>
-  <si>
-    <t>0.0346</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -971,4 +972,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,17 +992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.96</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1027,13 +1070,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1379,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,17 +1391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1410,14 +1431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.44</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1426,14 +1469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.96</v>
       </c>
     </row>
     <row r="4">
@@ -1442,13 +1507,933 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2348,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2359,17 +2360,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2379,14 +2400,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.550000000000001</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2395,14 +2438,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.44</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2411,14 +2476,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.96</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2483</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2427,13 +2514,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>9.85</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>8.550000000000001</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>8.44</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6.96</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1191,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2159,7 +2460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2557,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2915,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/603323-苏农银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>7.91</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.85</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8.550000000000001</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>8.44</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>6.96</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2460,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2858,7 +3007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3216,7 +3365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
